--- a/assets/sim2/EUT_S4_M2_Fc2.5_char.xlsx
+++ b/assets/sim2/EUT_S4_M2_Fc2.5_char.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20367"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msteelan\OneDrive - UGent\Work\Uni_projects\artevelde\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hansvertriest/Documents/School/sem5/studioGDM/datavisualisatie/app-simulation/assets/sim2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="11_98D60490B47EFEE5868ED055846596EFA2639446" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{3AA4A84A-02A9-400B-B8D7-3E75E3E383AC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031F45DC-C3A2-9347-B848-7AF3E13DBC87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="54400" yWindow="-9200" windowWidth="25600" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -576,22 +585,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
@@ -603,7 +612,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -617,7 +626,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -631,12 +640,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B5" s="1">
-        <v>-29.25</v>
+        <v>-25.5</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>1</v>
@@ -645,7 +654,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>59</v>
       </c>
@@ -659,7 +668,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
@@ -671,7 +680,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
@@ -683,7 +692,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
@@ -697,7 +706,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>2</v>
       </c>
@@ -711,7 +720,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>17</v>
       </c>
@@ -725,7 +734,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>44</v>
       </c>
@@ -739,7 +748,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>44</v>
       </c>
@@ -754,12 +763,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="3"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>18</v>
       </c>
@@ -771,7 +780,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>19</v>
       </c>
@@ -785,7 +794,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>21</v>
       </c>
@@ -799,10 +808,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>23</v>
       </c>
@@ -813,7 +822,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>36</v>
       </c>
@@ -827,7 +836,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>37</v>
       </c>
@@ -841,7 +850,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>3</v>
       </c>
@@ -871,7 +880,7 @@
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>-220</v>
       </c>
@@ -897,7 +906,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>-220</v>
       </c>
@@ -920,7 +929,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>-220</v>
       </c>
@@ -946,7 +955,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
         <v>-220</v>
       </c>
@@ -972,7 +981,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <v>-140</v>
       </c>
@@ -998,7 +1007,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
         <v>-140</v>
       </c>
@@ -1019,7 +1028,7 @@
       </c>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <v>120</v>
       </c>
@@ -1039,7 +1048,7 @@
         <v>127530</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
         <v>120</v>
       </c>
@@ -1060,7 +1069,7 @@
       </c>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="10">
         <v>200</v>
       </c>
@@ -1081,7 +1090,7 @@
       </c>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="10">
         <v>200</v>
       </c>
@@ -1102,7 +1111,7 @@
       </c>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="10">
         <v>220</v>
       </c>
@@ -1123,7 +1132,7 @@
       </c>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="10">
         <v>220</v>
       </c>
@@ -1144,7 +1153,7 @@
       </c>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -1155,7 +1164,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>36</v>
       </c>
@@ -1169,7 +1178,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>37</v>
       </c>
@@ -1183,7 +1192,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>3</v>
       </c>
@@ -1196,7 +1205,7 @@
       <c r="D38" s="4"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>-100</v>
       </c>
@@ -1210,7 +1219,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>-80</v>
       </c>
@@ -1227,7 +1236,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>-60</v>
       </c>
@@ -1241,7 +1250,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>-40</v>
       </c>
@@ -1258,7 +1267,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>-20</v>
       </c>
@@ -1269,7 +1278,7 @@
         <v>3886400</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>0</v>
       </c>
@@ -1280,7 +1289,7 @@
         <v>3886400</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>20</v>
       </c>
@@ -1291,7 +1300,7 @@
         <v>3886400</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>40</v>
       </c>
@@ -1302,7 +1311,7 @@
         <v>3886400</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>60</v>
       </c>
